--- a/biology/Zoologie/Albatros_de_Sanford/Albatros_de_Sanford.xlsx
+++ b/biology/Zoologie/Albatros_de_Sanford/Albatros_de_Sanford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diomedea sanfordi
 L'Albatros de Sanford (Diomedea sanfordi) est une espèce d'oiseaux de mer de la famille des Diomedeidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps considéré comme une sous-espèce de l'Albatros royal, Diomedea sanfordi est un peu plus petit et possède des ailes plus étroites. Le dessus de ses ailes demeure sombre, même chez les individus âgés. Leur dessous est blanc bordé d'une ligne noire sur le bord de fuite.
 Les juvéniles présentent des taches sombres sur la tête et le bas du dos.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'albatros de Sanford niche sur Chatham, sur Auckland (seulement quelques couples) et dans le sud de la Nouvelle-Zélande (Péninsule Otago).
 </t>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Albatros royal (Diomedea epomophora) (Sibley et Monroe 1990, 1993) a été divisé en D. epomophora et D. sanfordi à la suite des travaux de Robertson et Nunn (1998) puis Brooke (2004)[1]. Cette espèce était donc auparavant la sous-espèce Diomedea epomophora sanfordi.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Albatros royal (Diomedea epomophora) (Sibley et Monroe 1990, 1993) a été divisé en D. epomophora et D. sanfordi à la suite des travaux de Robertson et Nunn (1998) puis Brooke (2004). Cette espèce était donc auparavant la sous-espèce Diomedea epomophora sanfordi.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus vieil oiseau connu a 70 ans.
 </t>
